--- a/Mifos Automation Excels/Loan Product/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2357-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-BLR-LATE-CASH-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -309,6 +309,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -325,6 +326,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -366,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -391,7 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -799,66 +800,66 @@
       </c>
     </row>
     <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -967,18 +968,18 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="19">
         <v>42005</v>
       </c>
     </row>
@@ -1120,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1158,31 +1159,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1190,7 +1191,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1198,7 +1199,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1206,29 +1207,29 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>42096</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1236,23 +1237,23 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>42125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1260,7 +1261,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1268,23 +1269,23 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>42156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1292,7 +1293,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1300,23 +1301,23 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>42186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1324,7 +1325,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
